--- a/image/medicationusage.xlsx
+++ b/image/medicationusage.xlsx
@@ -904,45 +904,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.97265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="116.15234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.78515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.1015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="116.93359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.72265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.97265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="136.390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="135.96875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/medicationusage.xlsx
+++ b/image/medicationusage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="236">
   <si>
     <t>Path</t>
   </si>
@@ -148,18 +148,6 @@
   <si>
     <t>A record of a medication that is being consumed by a patient.   A MedicationUsage may indicate that the patient may be taking the medication now or has taken the medication in the past or will be taking the medication in the future.  The source of this information can be the patient, significant other (such as a family member or spouse), or a clinician.  A common scenario where this information is captured is during the history taking process during a patient visit or stay.   The medication information may come from sources such as the patient's memory, from a prescription bottle,  or from a list of medications the patient, clinician or other party maintains. 
 The primary difference between a medicationusage and a medicationadministration is that the medication administration has complete administration information and is based on actual administration information from the person who administered the medication.  A medicationusage is often, if not always, less specific.  There is no required date/time when the medication was administered, in fact we only know that a source has reported the patient is taking this medication, where details such as time, quantity, or rate or even medication product may be incomplete or missing or less precise.  As stated earlier, the Medication Usage information may come from the patient's memory, from a prescription bottle or from a list of medications the patient, clinician or other party maintains.  Medication administration is more formal and is not missing detailed information.</t>
-  </si>
-  <si>
-    <t>When interpreting a MedicationUsage, the value of the status and NotTaken needed to be considered:-MedicationUsage.status + MedicationUsage.wasNotTaken-Status=Active + NotTaken=T = Not currently taking-Status=Completed + NotTaken=T = Not taken in the past-Status=Intended + NotTaken=T = No intention of taking-Status=Active + NotTaken=F = Taking, but not as prescribed-Status=Active + NotTaken=F = Taking-Status=Intended +NotTaken= F = Will be taking (not started)-Status=Completed + NotTaken=F = Taken in past-Status=In Error + NotTaken=N/A = In Error.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -589,10 +577,10 @@
     <t>The date/time or interval when the medication is/was/will be taken</t>
   </si>
   <si>
-    <t>The interval of time during which it is being asserted that the patient is/was/will be taking the medication (or was not taking, when the MedicationUsage.taken element is No).</t>
-  </si>
-  <si>
-    <t>This attribute reflects the period over which the patient consumed the medication and is expected to be populated on the majority of Medication Usages. If the medication is still being taken at the time the usage is recorded, the "end" date will be omitted.  The date/time attribute supports a variety of dates - year, year/month and exact date.  If something more than this is required, this should be conveyed as text.</t>
+    <t>The interval of time during which it is being asserted that the patient is/was/will be taking the medication (or was not taking, when the MedicationUsage.status element is NotTaken).</t>
+  </si>
+  <si>
+    <t>This attribute reflects the period over which the patient consumed the medication and is expected to be populated on the majority of Medication Usages. f the medication is still being taken and is expected to continue indefinitely at the time the usage is recorded, the "end" date will be omitted.  If the end date is known, then it is included as the "end date".  The date/time attribute supports a variety of dates - year, year/month and exact date.  If something more than this is required, this should be conveyed as text.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1097,9 +1085,7 @@
       <c r="L2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="M2" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
         <v>40</v>
@@ -1160,13 +1146,13 @@
         <v>40</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>40</v>
@@ -1177,7 +1163,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1188,28 +1174,28 @@
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1259,13 +1245,13 @@
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>40</v>
@@ -1288,7 +1274,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1299,25 +1285,25 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1368,13 +1354,13 @@
         <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>40</v>
@@ -1397,7 +1383,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1408,28 +1394,28 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1479,13 +1465,13 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>40</v>
@@ -1508,7 +1494,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1519,7 +1505,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1531,16 +1517,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1566,37 +1552,37 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -1619,18 +1605,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>40</v>
@@ -1642,16 +1628,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1701,25 +1687,25 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -1730,11 +1716,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1753,16 +1739,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1812,7 +1798,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -1830,7 +1816,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -1841,11 +1827,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1864,16 +1850,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1923,7 +1909,7 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1941,7 +1927,7 @@
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -1952,11 +1938,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1969,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2036,7 +2022,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2054,7 +2040,7 @@
         <v>40</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
@@ -2065,7 +2051,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2085,19 +2071,19 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2147,7 +2133,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2162,13 +2148,13 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>40</v>
@@ -2176,7 +2162,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2196,20 +2182,20 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2258,7 +2244,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2273,10 +2259,10 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2287,7 +2273,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2307,20 +2293,20 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2369,7 +2355,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2384,10 +2370,10 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2398,7 +2384,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2406,31 +2392,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2456,52 +2442,52 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -2509,7 +2495,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2532,16 +2518,16 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2567,14 +2553,14 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
       </c>
@@ -2591,7 +2577,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2606,10 +2592,10 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2620,7 +2606,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2640,16 +2626,16 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2676,14 +2662,14 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
       </c>
@@ -2700,7 +2686,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2718,10 +2704,10 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2729,7 +2715,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2737,31 +2723,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2787,52 +2773,52 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -2840,7 +2826,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2848,28 +2834,28 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2920,13 +2906,13 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -2935,21 +2921,21 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2960,25 +2946,25 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3029,13 +3015,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3044,10 +3030,10 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3058,7 +3044,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3069,28 +3055,28 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3140,13 +3126,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3155,13 +3141,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3169,7 +3155,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3180,25 +3166,25 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3249,13 +3235,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3267,10 +3253,10 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3278,7 +3264,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3289,7 +3275,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3301,13 +3287,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3358,13 +3344,13 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3376,10 +3362,10 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3387,7 +3373,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3410,16 +3396,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3469,7 +3455,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3487,7 +3473,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3498,7 +3484,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3521,16 +3507,16 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3556,14 +3542,14 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3580,7 +3566,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3595,13 +3581,13 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -3609,7 +3595,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3632,16 +3618,16 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3691,7 +3677,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3706,13 +3692,13 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3720,7 +3706,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3743,13 +3729,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3800,7 +3786,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3815,10 +3801,10 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -3829,7 +3815,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3852,16 +3838,16 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3911,7 +3897,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3929,7 +3915,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -3940,7 +3926,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3951,7 +3937,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -3963,13 +3949,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4020,13 +4006,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4038,7 +4024,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>

--- a/image/medicationusage.xlsx
+++ b/image/medicationusage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="236">
   <si>
     <t>Path</t>
   </si>
@@ -148,18 +148,6 @@
   <si>
     <t>A record of a medication that is being consumed by a patient.   A MedicationUsage may indicate that the patient may be taking the medication now or has taken the medication in the past or will be taking the medication in the future.  The source of this information can be the patient, significant other (such as a family member or spouse), or a clinician.  A common scenario where this information is captured is during the history taking process during a patient visit or stay.   The medication information may come from sources such as the patient's memory, from a prescription bottle,  or from a list of medications the patient, clinician or other party maintains. 
 The primary difference between a medicationusage and a medicationadministration is that the medication administration has complete administration information and is based on actual administration information from the person who administered the medication.  A medicationusage is often, if not always, less specific.  There is no required date/time when the medication was administered, in fact we only know that a source has reported the patient is taking this medication, where details such as time, quantity, or rate or even medication product may be incomplete or missing or less precise.  As stated earlier, the Medication Usage information may come from the patient's memory, from a prescription bottle or from a list of medications the patient, clinician or other party maintains.  Medication administration is more formal and is not missing detailed information.</t>
-  </si>
-  <si>
-    <t>When interpreting a MedicationUsage, the value of the status and NotTaken needed to be considered:-MedicationUsage.status + MedicationUsage.wasNotTaken-Status=Active + NotTaken=T = Not currently taking-Status=Completed + NotTaken=T = Not taken in the past-Status=Intended + NotTaken=T = No intention of taking-Status=Active + NotTaken=F = Taking, but not as prescribed-Status=Active + NotTaken=F = Taking-Status=Intended +NotTaken= F = Will be taking (not started)-Status=Completed + NotTaken=F = Taken in past-Status=In Error + NotTaken=N/A = In Error.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -589,10 +577,10 @@
     <t>The date/time or interval when the medication is/was/will be taken</t>
   </si>
   <si>
-    <t>The interval of time during which it is being asserted that the patient is/was/will be taking the medication (or was not taking, when the MedicationUsage.taken element is No).</t>
-  </si>
-  <si>
-    <t>This attribute reflects the period over which the patient consumed the medication and is expected to be populated on the majority of Medication Usages. If the medication is still being taken at the time the usage is recorded, the "end" date will be omitted.  The date/time attribute supports a variety of dates - year, year/month and exact date.  If something more than this is required, this should be conveyed as text.</t>
+    <t>The interval of time during which it is being asserted that the patient is/was/will be taking the medication (or was not taking, when the MedicationUsage.status element is NotTaken).</t>
+  </si>
+  <si>
+    <t>This attribute reflects the period over which the patient consumed the medication and is expected to be populated on the majority of Medication Usages. f the medication is still being taken and is expected to continue indefinitely at the time the usage is recorded, the "end" date will be omitted.  If the end date is known, then it is included as the "end date".  The date/time attribute supports a variety of dates - year, year/month and exact date.  If something more than this is required, this should be conveyed as text.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -904,45 +892,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.97265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="116.15234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.78515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.1015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="116.93359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.72265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.97265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="136.390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="135.96875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1097,9 +1085,7 @@
       <c r="L2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="M2" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
         <v>40</v>
@@ -1160,13 +1146,13 @@
         <v>40</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>40</v>
@@ -1177,7 +1163,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1188,28 +1174,28 @@
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1259,13 +1245,13 @@
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>40</v>
@@ -1288,7 +1274,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1299,25 +1285,25 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1368,13 +1354,13 @@
         <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>40</v>
@@ -1397,7 +1383,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1408,28 +1394,28 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1479,13 +1465,13 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>40</v>
@@ -1508,7 +1494,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1519,7 +1505,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1531,16 +1517,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1566,37 +1552,37 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -1619,18 +1605,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>40</v>
@@ -1642,16 +1628,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1701,25 +1687,25 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -1730,11 +1716,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1753,16 +1739,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1812,7 +1798,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -1830,7 +1816,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -1841,11 +1827,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1864,16 +1850,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1923,7 +1909,7 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1941,7 +1927,7 @@
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -1952,11 +1938,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1969,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2036,7 +2022,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2054,7 +2040,7 @@
         <v>40</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
@@ -2065,7 +2051,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2085,19 +2071,19 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2147,7 +2133,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2162,13 +2148,13 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>40</v>
@@ -2176,7 +2162,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2196,20 +2182,20 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2258,7 +2244,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2273,10 +2259,10 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2287,7 +2273,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2307,20 +2293,20 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2369,7 +2355,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2384,10 +2370,10 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2398,7 +2384,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2406,31 +2392,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2456,52 +2442,52 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -2509,7 +2495,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2532,16 +2518,16 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2567,14 +2553,14 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
       </c>
@@ -2591,7 +2577,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2606,10 +2592,10 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2620,7 +2606,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2640,16 +2626,16 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2676,14 +2662,14 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
       </c>
@@ -2700,7 +2686,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2718,10 +2704,10 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2729,7 +2715,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2737,31 +2723,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2787,52 +2773,52 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -2840,7 +2826,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2848,28 +2834,28 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2920,13 +2906,13 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -2935,21 +2921,21 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2960,25 +2946,25 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3029,13 +3015,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3044,10 +3030,10 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3058,7 +3044,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3069,28 +3055,28 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3140,13 +3126,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3155,13 +3141,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3169,7 +3155,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3180,25 +3166,25 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3249,13 +3235,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3267,10 +3253,10 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3278,7 +3264,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3289,7 +3275,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3301,13 +3287,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3358,13 +3344,13 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3376,10 +3362,10 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3387,7 +3373,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3410,16 +3396,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3469,7 +3455,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3487,7 +3473,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3498,7 +3484,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3521,16 +3507,16 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3556,14 +3542,14 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3580,7 +3566,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3595,13 +3581,13 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -3609,7 +3595,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3632,16 +3618,16 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3691,7 +3677,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3706,13 +3692,13 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="AL25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3720,7 +3706,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3743,13 +3729,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3800,7 +3786,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3815,10 +3801,10 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -3829,7 +3815,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3852,16 +3838,16 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3911,7 +3897,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3929,7 +3915,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -3940,7 +3926,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3951,7 +3937,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -3963,13 +3949,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4020,13 +4006,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4038,7 +4024,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>

--- a/image/medicationusage.xlsx
+++ b/image/medicationusage.xlsx
@@ -169,7 +169,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -580,7 +580,7 @@
     <t>The interval of time during which it is being asserted that the patient is/was/will be taking the medication (or was not taking, when the MedicationUsage.status element is NotTaken).</t>
   </si>
   <si>
-    <t>This attribute reflects the period over which the patient consumed the medication and is expected to be populated on the majority of Medication Usages. f the medication is still being taken and is expected to continue indefinitely at the time the usage is recorded, the "end" date will be omitted.  If the end date is known, then it is included as the "end date".  The date/time attribute supports a variety of dates - year, year/month and exact date.  If something more than this is required, this should be conveyed as text.</t>
+    <t>This attribute reflects the period over which the patient consumed the medication and is expected to be populated on the majority of Medication Usages. If the medication is still being taken and is expected to continue indefinitely at the time the usage is recorded, the "end" date will be omitted.  If the end date is known, then it is included as the "end date".  The date/time attribute supports a variety of dates - year, year/month and exact date.  If something more than this is required, this should be conveyed as text.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -892,45 +892,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.97265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.1015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="116.93359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.72265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.97265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="116.15234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.78515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.1015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="135.96875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="136.390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
